--- a/DONE/BAYBAY, ARNOLD.xlsx
+++ b/DONE/BAYBAY, ARNOLD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -598,9 +598,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -610,17 +607,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,27 +825,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1066,27 +1066,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1149,25 +1149,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K126" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K126" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERSION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERSION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1179,25 +1179,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K69" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K69" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERSION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERSION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1511,9 +1511,9 @@
   <dimension ref="A2:K126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,64 +1535,64 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="55">
         <v>34596</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1625,18 +1625,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1693,7 +1693,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3061,15 +3061,19 @@
       <c r="K76" s="21"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
+      <c r="A77" s="43">
+        <v>44958</v>
+      </c>
       <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="42"/>
       <c r="E77" s="10"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="10"/>
@@ -3077,15 +3081,19 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
+      <c r="A78" s="43">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="42"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="10"/>
@@ -3862,19 +3870,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -3883,7 +3891,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -3891,8 +3899,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                          OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3932,64 +3940,64 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="55">
         <v>34596</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4022,18 +4030,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/DONE/BAYBAY, ARNOLD.xlsx
+++ b/DONE/BAYBAY, ARNOLD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>5/5,6/2023</t>
+  </si>
+  <si>
+    <t>CL(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/2-4/2023</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1519,7 @@
   </sheetPr>
   <dimension ref="A2:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
@@ -3915,10 +3924,10 @@
   </sheetPr>
   <dimension ref="A2:K69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A3" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,7 +4107,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERSION!$B$3</f>
-        <v>265.02499999999998</v>
+        <v>263.02499999999998</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4188,7 +4197,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="49" t="s">
+        <v>57</v>
+      </c>
       <c r="B14" s="21"/>
       <c r="C14" s="14"/>
       <c r="D14" s="42"/>
@@ -4204,8 +4215,12 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="43">
+        <v>45047</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="42"/>
       <c r="E15" s="10"/>
@@ -4214,14 +4229,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H15" s="42"/>
+      <c r="H15" s="42">
+        <v>2</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="42"/>
       <c r="E16" s="10"/>
@@ -4233,7 +4254,9 @@
       <c r="H16" s="42"/>
       <c r="I16" s="10"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
